--- a/Documents/Tags & Expertise.xlsx
+++ b/Documents/Tags & Expertise.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>apache2</t>
   </si>
@@ -89,9 +89,6 @@
     <t>flash</t>
   </si>
   <si>
-    <t>Dlash</t>
-  </si>
-  <si>
     <t>git</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>mvc</t>
   </si>
   <si>
-    <t>Model-View-Controller</t>
-  </si>
-  <si>
     <t>mysql</t>
   </si>
   <si>
@@ -339,6 +333,60 @@
   </si>
   <si>
     <t>Expertise</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>WCF</t>
+  </si>
+  <si>
+    <t>TFVC</t>
+  </si>
+  <si>
+    <t>TFS</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>WebForms</t>
+  </si>
+  <si>
+    <t>OnTime</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>Internet Information Services</t>
+  </si>
+  <si>
+    <t>MS SQL</t>
+  </si>
+  <si>
+    <t>ASP.NET MVC</t>
+  </si>
+  <si>
+    <t>RegEx</t>
+  </si>
+  <si>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>VB.NET</t>
+  </si>
+  <si>
+    <t>WinForms</t>
   </si>
 </sst>
 </file>
@@ -665,795 +713,847 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E52"/>
+      <selection activeCell="F2" sqref="F2:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="E2" t="str">
-        <f>"Tags.allTags.push(new Tag(""" &amp; A2 &amp; """, """ &amp; B2 &amp; """" &amp; IF(C2 = "", "",  ", " &amp; C2) &amp; "));"</f>
-        <v>Tags.allTags.push(new Tag("aws", "Amazon Web Services", 7));</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"Tags.allTags.push(new Tag(""" &amp; A2 &amp; """, " &amp; IF(B2 = "", "null", """" &amp; B2 &amp; """") &amp; ", """ &amp; C2 &amp; """" &amp; IF(D2 = "", "",  ", " &amp; D2) &amp; "));"</f>
+        <v>Tags.allTags.push(new Tag("aws", "AWS", "Amazon Web Services", 7));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E52" si="0">"Tags.allTags.push(new Tag(""" &amp; A3 &amp; """, """ &amp; B3 &amp; """" &amp; IF(C3 = "", "",  ", " &amp; C3) &amp; "));"</f>
-        <v>Tags.allTags.push(new Tag("apache2", "Apache2", 6));</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F52" si="0">"Tags.allTags.push(new Tag(""" &amp; A3 &amp; """, " &amp; IF(B3 = "", "null", """" &amp; B3 &amp; """") &amp; ", """ &amp; C3 &amp; """" &amp; IF(D3 = "", "",  ", " &amp; D3) &amp; "));"</f>
+        <v>Tags.allTags.push(new Tag("apache2", null, "Apache2", 6));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("api", "API"));</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("api", "API", "API"));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("arcgis", "ArcGIS", 3));</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("arcgis", null, "ArcGIS", 3));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("arduino", "Arduino", 4));</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("arduino", null, "Arduino", 4));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("webforms", "ASP.NET WebForms", 10));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("webforms", "WebForms", "ASP.NET WebForms", 10));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("ontime", "Axosoft OnTime", 7));</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("ontime", "OnTime", "Axosoft OnTime", 7));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("bs", "Bootstrap", 8));</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("bs", null, "Bootstrap", 8));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("cs", "C#", 10));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("cs", null, "C#", 10));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("cpp", "C++", 3));</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("cpp", null, "C++", 3));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("css", "CSS", 10));</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("css", null, "CSS", 10));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("css3", "CSS3", 10));</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("css3", null, "CSS3", 10));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("flash", null, "Flash", 3));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("git", null, "Git", 7));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("flash", "Dlash", 3));</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("grails", null, "Grails", 3));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("html", null, "HTML", 10));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("html5", null, "HTML5", 10));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("iis", "IIS", "Internet Information Services", 10));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("git", "Git", 7));</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("java", null, "Java", 7));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("js", "JS", "JavaScript", 10));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("ko", null, "Knockout", 7));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("linux", null, "Linux", 6));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("mantis", null, "Mantis", 6));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("mapping", null, "Mapping", 6));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("mssql", "MS SQL", "Microsoft SQL Server", 9));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("mvc", "MVC", "ASP.NET MVC", 10));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("msoffice", null, "MS Office", 6));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("mysql", null, "My SQL", 7));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("grails", "Grails", 3));</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("openscad", null, "OpenSCAD", 3));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("oracle", null, "Oracle", 5));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("php", null, "PHP", 5));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("python", null, "Python", 2));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("redmine", null, "Redmine", 6));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("regex", "RegEx", "Regular Expressions", 9));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("rails", "Rails", "Ruby on Rails", 6));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("sl", null, "Silverlight", 4));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("svn", "SVN", "Subversion", 9));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("svg", null, "SVG", 7));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("tfs", "TFS", "Team Foundation Server", 9));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("tfvc", "TFVC", "Team Foundation Version Control", 7));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("tomcat", null, "Tomcat", 7));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("uiux", null, "UI/UX", 7));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("vb", "VB.NET", "Visual Basic .NET", 8));</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("html", "HTML", 10));</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("weblogic", null, "WebLogic", 10));</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
         <v>10</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("html5", "HTML5", 10));</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("windows", null, "Windows", 10));</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("wcf", "WCF", "Windows Communication Foundation", 7));</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
         <v>10</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("iis", "IIS", 10));</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("winforms", "WinForms", "Windows Forms", 10));</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("wp", null, "Windows Phone", 4));</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("xml", null, "XML", 10));</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51">
         <v>7</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("java", "Java", 7));</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("js", "JavaScript", 10));</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("ko", "Knockout", 7));</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("linux", "Linux", 6));</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mantis", "Mantis", 6));</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mapping", "Mapping", 6));</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("xsd", null, "XSD", 7));</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52">
         <v>9</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mssql", "Microsoft SQL Server", 9));</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mvc", "Model-View-Controller", 10));</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("msoffice", "MS Office", 6));</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mysql", "My SQL", 7));</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("openscad", "OpenSCAD", 3));</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("oracle", "Oracle", 5));</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("php", "PHP", 5));</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("python", "Python", 2));</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("redmine", "Redmine", 6));</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("regex", "Regular Expressions", 9));</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("rails", "Ruby on Rails", 6));</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("sl", "Silverlight", 4));</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("svn", "Subversion", 9));</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("svg", "SVG", 7));</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tfs", "Team Foundation Server", 9));</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41">
-        <v>7</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tfvc", "Team Foundation Version Control", 7));</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tomcat", "Tomcat", 7));</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("uiux", "UI/UX", 7));</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("vb", "Visual Basic .NET", 8));</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("weblogic", "WebLogic", 10));</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("windows", "Windows", 10));</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("wcf", "Windows Communication Foundation", 7));</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("winforms", "Windows Forms", 10));</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("wp", "Windows Phone", 4));</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("xml", "XML", 10));</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("xsd", "XSD", 7));</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("xslt", "XSLT", 9));</v>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("xslt", null, "XSLT", 9));</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C52">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:D52">
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Tags & Expertise.xlsx
+++ b/Documents/Tags & Expertise.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Tags &amp; Expertise" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>apache2</t>
   </si>
@@ -155,12 +156,6 @@
     <t>Mapping</t>
   </si>
   <si>
-    <t>msoffice</t>
-  </si>
-  <si>
-    <t>MS Office</t>
-  </si>
-  <si>
     <t>mssql</t>
   </si>
   <si>
@@ -176,12 +171,6 @@
     <t>My SQL</t>
   </si>
   <si>
-    <t>ontime</t>
-  </si>
-  <si>
-    <t>Axosoft OnTime</t>
-  </si>
-  <si>
     <t>openscad</t>
   </si>
   <si>
@@ -230,12 +219,6 @@
     <t>Silverlight</t>
   </si>
   <si>
-    <t>svg</t>
-  </si>
-  <si>
-    <t>SVG</t>
-  </si>
-  <si>
     <t>svn</t>
   </si>
   <si>
@@ -362,9 +345,6 @@
     <t>WebForms</t>
   </si>
   <si>
-    <t>OnTime</t>
-  </si>
-  <si>
     <t>Flash</t>
   </si>
   <si>
@@ -387,6 +367,30 @@
   </si>
   <si>
     <t>WinForms</t>
+  </si>
+  <si>
+    <t>winserver</t>
+  </si>
+  <si>
+    <t>Windows Server</t>
+  </si>
+  <si>
+    <t>ssrs</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server Reporting Services</t>
+  </si>
+  <si>
+    <t>highcharts</t>
+  </si>
+  <si>
+    <t>Highcharts</t>
+  </si>
+  <si>
+    <t>highmaps</t>
+  </si>
+  <si>
+    <t>Highmaps</t>
   </si>
 </sst>
 </file>
@@ -713,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,16 +733,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -770,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F52" si="0">"Tags.allTags.push(new Tag(""" &amp; A3 &amp; """, " &amp; IF(B3 = "", "null", """" &amp; B3 &amp; """") &amp; ", """ &amp; C3 &amp; """" &amp; IF(D3 = "", "",  ", " &amp; D3) &amp; "));"</f>
+        <f t="shared" ref="F3:F53" si="0">"Tags.allTags.push(new Tag(""" &amp; A3 &amp; """, " &amp; IF(B3 = "", "null", """" &amp; B3 &amp; """") &amp; ", """ &amp; C3 &amp; """" &amp; IF(D3 = "", "",  ", " &amp; D3) &amp; "));"</f>
         <v>Tags.allTags.push(new Tag("apache2", null, "Apache2", 6));</v>
       </c>
     </row>
@@ -821,13 +825,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -839,440 +843,434 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("ontime", "OnTime", "Axosoft OnTime", 7));</v>
+        <v>Tags.allTags.push(new Tag("bs", null, "Bootstrap", 8));</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("bs", null, "Bootstrap", 8));</v>
+        <v>Tags.allTags.push(new Tag("cs", null, "C#", 10));</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("cs", null, "C#", 10));</v>
+        <v>Tags.allTags.push(new Tag("cpp", null, "C++", 3));</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("cpp", null, "C++", 3));</v>
+        <v>Tags.allTags.push(new Tag("css", null, "CSS", 10));</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("css", null, "CSS", 10));</v>
+        <v>Tags.allTags.push(new Tag("css3", null, "CSS3", 10));</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("css3", null, "CSS3", 10));</v>
+        <v>Tags.allTags.push(new Tag("flash", null, "Flash", 3));</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("flash", null, "Flash", 3));</v>
+        <v>Tags.allTags.push(new Tag("git", null, "Git", 7));</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("git", null, "Git", 7));</v>
+        <v>Tags.allTags.push(new Tag("grails", null, "Grails", 3));</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("grails", null, "Grails", 3));</v>
+        <v>Tags.allTags.push(new Tag("highcharts", null, "Highcharts", 6));</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("html", null, "HTML", 10));</v>
+        <v>Tags.allTags.push(new Tag("highmaps", null, "Highmaps", 8));</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("html5", null, "HTML5", 10));</v>
+        <v>Tags.allTags.push(new Tag("html", null, "HTML", 10));</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("iis", "IIS", "Internet Information Services", 10));</v>
+        <v>Tags.allTags.push(new Tag("html5", null, "HTML5", 10));</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("java", null, "Java", 7));</v>
+        <v>Tags.allTags.push(new Tag("iis", "IIS", "Internet Information Services", 10));</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("js", "JS", "JavaScript", 10));</v>
+        <v>Tags.allTags.push(new Tag("java", null, "Java", 7));</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("ko", null, "Knockout", 7));</v>
+        <v>Tags.allTags.push(new Tag("js", "JS", "JavaScript", 10));</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("linux", null, "Linux", 6));</v>
+        <v>Tags.allTags.push(new Tag("ko", null, "Knockout", 7));</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mantis", null, "Mantis", 6));</v>
+        <v>Tags.allTags.push(new Tag("linux", null, "Linux", 6));</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mapping", null, "Mapping", 6));</v>
+        <v>Tags.allTags.push(new Tag("mantis", null, "Mantis", 8));</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mssql", "MS SQL", "Microsoft SQL Server", 9));</v>
+        <v>Tags.allTags.push(new Tag("mapping", null, "Mapping", 6));</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mvc", "MVC", "ASP.NET MVC", 10));</v>
+        <v>Tags.allTags.push(new Tag("mssql", "MS SQL", "Microsoft SQL Server", 9));</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("msoffice", null, "MS Office", 6));</v>
+        <f>"Tags.allTags.push(new Tag(""" &amp; A28 &amp; """, " &amp; IF(B28 = "", "null", """" &amp; B28 &amp; """") &amp; ", """ &amp; C28 &amp; """" &amp; IF(D28 = "", "",  ", " &amp; D28) &amp; "));"</f>
+        <v>Tags.allTags.push(new Tag("ssrs", null, "Microsoft SQL Server Reporting Services", 8));</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mysql", null, "My SQL", 7));</v>
+        <v>Tags.allTags.push(new Tag("mvc", "MVC", "ASP.NET MVC", 10));</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("openscad", null, "OpenSCAD", 3));</v>
+        <v>Tags.allTags.push(new Tag("mysql", null, "My SQL", 8));</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("oracle", null, "Oracle", 5));</v>
+        <v>Tags.allTags.push(new Tag("openscad", null, "OpenSCAD", 3));</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("php", null, "PHP", 5));</v>
+        <v>Tags.allTags.push(new Tag("oracle", null, "Oracle", 5));</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("python", null, "Python", 2));</v>
+        <v>Tags.allTags.push(new Tag("php", null, "PHP", 5));</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("redmine", null, "Redmine", 6));</v>
+        <v>Tags.allTags.push(new Tag("python", null, "Python", 2));</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("regex", "RegEx", "Regular Expressions", 9));</v>
+        <v>Tags.allTags.push(new Tag("redmine", null, "Redmine", 6));</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,94 +1278,97 @@
         <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("rails", "Rails", "Ruby on Rails", 6));</v>
+        <v>Tags.allTags.push(new Tag("regex", "RegEx", "Regular Expressions", 9));</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("sl", null, "Silverlight", 4));</v>
+        <v>Tags.allTags.push(new Tag("rails", "Rails", "Ruby on Rails", 6));</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("svn", "SVN", "Subversion", 9));</v>
+        <v>Tags.allTags.push(new Tag("sl", null, "Silverlight", 4));</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("svg", null, "SVG", 7));</v>
+        <v>Tags.allTags.push(new Tag("svn", "SVN", "Subversion", 9));</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tfs", "TFS", "Team Foundation Server", 9));</v>
+        <v>Tags.allTags.push(new Tag("tfs", "TFS", "Team Foundation Server", 6));</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -1379,10 +1380,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -1394,10 +1395,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>7</v>
@@ -1409,13 +1410,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -1427,10 +1428,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -1442,111 +1443,126 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D46">
         <v>10</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
+        <f>"Tags.allTags.push(new Tag(""" &amp; A46 &amp; """, " &amp; IF(B46 = "", "null", """" &amp; B46 &amp; """") &amp; ", """ &amp; C46 &amp; """" &amp; IF(D46 = "", "",  ", " &amp; D46) &amp; "));"</f>
         <v>Tags.allTags.push(new Tag("windows", null, "Windows", 10));</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("wcf", "WCF", "Windows Communication Foundation", 7));</v>
+        <v>Tags.allTags.push(new Tag("winserver", null, "Windows Server", 9));</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("winforms", "WinForms", "Windows Forms", 10));</v>
+        <v>Tags.allTags.push(new Tag("wcf", "WCF", "Windows Communication Foundation", 7));</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("wp", null, "Windows Phone", 4));</v>
+        <v>Tags.allTags.push(new Tag("winforms", "WinForms", "Windows Forms", 10));</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("xml", null, "XML", 10));</v>
+        <v>Tags.allTags.push(new Tag("wp", null, "Windows Phone", 4));</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("xsd", null, "XSD", 7));</v>
+        <v>Tags.allTags.push(new Tag("xml", null, "XML", 10));</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("xsd", null, "XSD", 8));</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53">
         <v>9</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="0"/>
         <v>Tags.allTags.push(new Tag("xslt", null, "XSLT", 9));</v>
       </c>

--- a/Documents/Tags & Expertise.xlsx
+++ b/Documents/Tags & Expertise.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Tags &amp; Expertise" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,9 +233,6 @@
     <t>tfvc</t>
   </si>
   <si>
-    <t>Team Foundation Version Control</t>
-  </si>
-  <si>
     <t>tomcat</t>
   </si>
   <si>
@@ -391,6 +387,9 @@
   </si>
   <si>
     <t>Highmaps</t>
+  </si>
+  <si>
+    <t>TF Version Control</t>
   </si>
 </sst>
 </file>
@@ -720,7 +719,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,16 +732,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -825,13 +824,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -921,7 +920,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -963,10 +962,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
         <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -978,10 +977,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>121</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1029,7 +1028,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1059,7 +1058,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -1137,7 +1136,7 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -1152,10 +1151,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
         <v>116</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -1170,10 +1169,10 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -1278,7 +1277,7 @@
         <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
@@ -1296,7 +1295,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -1329,7 +1328,7 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
@@ -1347,7 +1346,7 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
@@ -1365,25 +1364,25 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tfvc", "TFVC", "Team Foundation Version Control", 7));</v>
+        <v>Tags.allTags.push(new Tag("tfvc", "TFVC", "TF Version Control", 7));</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -1395,10 +1394,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
         <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
       </c>
       <c r="D43">
         <v>7</v>
@@ -1410,13 +1409,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -1428,10 +1427,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
         <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -1443,10 +1442,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>83</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -1458,10 +1457,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -1473,13 +1472,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
         <v>76</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>77</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -1491,13 +1490,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
         <v>84</v>
-      </c>
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>85</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -1509,10 +1508,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
         <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>87</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -1524,10 +1523,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
         <v>88</v>
-      </c>
-      <c r="C51" t="s">
-        <v>89</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -1539,10 +1538,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -1554,10 +1553,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
       </c>
       <c r="D53">
         <v>9</v>

--- a/Documents/Tags & Expertise.xlsx
+++ b/Documents/Tags & Expertise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Personal\JoshuaScottMcCullough.com\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Personal\Resume\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>apache2</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>TF Version Control</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
   </si>
 </sst>
 </file>
@@ -716,10 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F53" si="0">"Tags.allTags.push(new Tag(""" &amp; A3 &amp; """, " &amp; IF(B3 = "", "null", """" &amp; B3 &amp; """") &amp; ", """ &amp; C3 &amp; """" &amp; IF(D3 = "", "",  ", " &amp; D3) &amp; "));"</f>
+        <f t="shared" ref="F3:F55" si="0">"Tags.allTags.push(new Tag(""" &amp; A3 &amp; """, " &amp; IF(B3 = "", "null", """" &amp; B3 &amp; """") &amp; ", """ &amp; C3 &amp; """" &amp; IF(D3 = "", "",  ", " &amp; D3) &amp; "));"</f>
         <v>Tags.allTags.push(new Tag("apache2", null, "Apache2", 6));</v>
       </c>
     </row>
@@ -824,750 +837,780 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("webforms", "WebForms", "ASP.NET WebForms", 10));</v>
+        <v>Tags.allTags.push(new Tag("mvc", "MVC", "ASP.NET MVC", 10));</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("bs", null, "Bootstrap", 8));</v>
+        <v>Tags.allTags.push(new Tag("webforms", "WebForms", "ASP.NET WebForms", 10));</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("cs", null, "C#", 10));</v>
+        <v>Tags.allTags.push(new Tag("bs", null, "Bootstrap", 8));</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("cpp", null, "C++", 3));</v>
+        <v>Tags.allTags.push(new Tag("cs", null, "C#", 10));</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("css", null, "CSS", 10));</v>
+        <v>Tags.allTags.push(new Tag("cpp", null, "C++", 3));</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("css3", null, "CSS3", 10));</v>
+        <v>Tags.allTags.push(new Tag("css", null, "CSS", 10));</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("flash", null, "Flash", 3));</v>
+        <v>Tags.allTags.push(new Tag("css3", null, "CSS3", 10));</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("git", null, "Git", 7));</v>
+        <v>Tags.allTags.push(new Tag("di", null, "Dependency Injection", 7));</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("grails", null, "Grails", 3));</v>
+        <v>Tags.allTags.push(new Tag("flash", null, "Flash", 3));</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("highcharts", null, "Highcharts", 6));</v>
+        <v>Tags.allTags.push(new Tag("git", null, "Git", 7));</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("highmaps", null, "Highmaps", 8));</v>
+        <v>Tags.allTags.push(new Tag("grails", null, "Grails", 3));</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("html", null, "HTML", 10));</v>
+        <v>Tags.allTags.push(new Tag("highcharts", null, "Highcharts", 6));</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("html5", null, "HTML5", 10));</v>
+        <v>Tags.allTags.push(new Tag("highmaps", null, "Highmaps", 8));</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>10</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("iis", "IIS", "Internet Information Services", 10));</v>
+        <v>Tags.allTags.push(new Tag("html", null, "HTML", 10));</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("java", null, "Java", 7));</v>
+        <v>Tags.allTags.push(new Tag("html5", null, "HTML5", 10));</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>10</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("js", "JS", "JavaScript", 10));</v>
+        <v>Tags.allTags.push(new Tag("iis", "IIS", "Internet Information Services", 10));</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("ko", null, "Knockout", 7));</v>
+        <v>Tags.allTags.push(new Tag("java", null, "Java", 7));</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("linux", null, "Linux", 6));</v>
+        <v>Tags.allTags.push(new Tag("js", "JS", "JavaScript", 10));</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mantis", null, "Mantis", 8));</v>
+        <v>Tags.allTags.push(new Tag("ko", null, "Knockout", 7));</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mapping", null, "Mapping", 6));</v>
+        <v>Tags.allTags.push(new Tag("linux", null, "Linux", 6));</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mssql", "MS SQL", "Microsoft SQL Server", 9));</v>
+        <v>Tags.allTags.push(new Tag("mantis", null, "Mantis", 8));</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="str">
         <f>"Tags.allTags.push(new Tag(""" &amp; A28 &amp; """, " &amp; IF(B28 = "", "null", """" &amp; B28 &amp; """") &amp; ", """ &amp; C28 &amp; """" &amp; IF(D28 = "", "",  ", " &amp; D28) &amp; "));"</f>
-        <v>Tags.allTags.push(new Tag("ssrs", null, "Microsoft SQL Server Reporting Services", 8));</v>
+        <v>Tags.allTags.push(new Tag("mapping", null, "Mapping", 6));</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mvc", "MVC", "ASP.NET MVC", 10));</v>
+        <v>Tags.allTags.push(new Tag("mssql", "MS SQL", "Microsoft SQL Server", 9));</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("mysql", null, "My SQL", 8));</v>
+        <v>Tags.allTags.push(new Tag("ssrs", null, "Microsoft SQL Server Reporting Services", 8));</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("openscad", null, "OpenSCAD", 3));</v>
+        <v>Tags.allTags.push(new Tag("mysql", null, "My SQL", 8));</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("oracle", null, "Oracle", 5));</v>
+        <v>Tags.allTags.push(new Tag("openscad", null, "OpenSCAD", 3));</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("php", null, "PHP", 5));</v>
+        <v>Tags.allTags.push(new Tag("oracle", null, "Oracle", 5));</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("python", null, "Python", 2));</v>
+        <v>Tags.allTags.push(new Tag("php", null, "PHP", 5));</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("redmine", null, "Redmine", 6));</v>
+        <v>Tags.allTags.push(new Tag("python", null, "Python", 2));</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("regex", "RegEx", "Regular Expressions", 9));</v>
+        <v>Tags.allTags.push(new Tag("redmine", null, "Redmine", 6));</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("rails", "Rails", "Ruby on Rails", 6));</v>
+        <v>Tags.allTags.push(new Tag("regex", "RegEx", "Regular Expressions", 9));</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("sl", null, "Silverlight", 4));</v>
+        <v>Tags.allTags.push(new Tag("rails", "Rails", "Ruby on Rails", 6));</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("svn", "SVN", "Subversion", 9));</v>
+        <v>Tags.allTags.push(new Tag("sl", null, "Silverlight", 4));</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tfs", "TFS", "Team Foundation Server", 6));</v>
+        <v>Tags.allTags.push(new Tag("svn", "SVN", "Subversion", 9));</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tfvc", "TFVC", "TF Version Control", 7));</v>
+        <v>Tags.allTags.push(new Tag("tfs", "TFS", "Team Foundation Server", 6));</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <v>7</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("tomcat", null, "Tomcat", 7));</v>
+        <v>Tags.allTags.push(new Tag("tfvc", "TFVC", "TF Version Control", 7));</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <v>7</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("uiux", null, "UI/UX", 7));</v>
+        <v>Tags.allTags.push(new Tag("tomcat", null, "Tomcat", 7));</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("vb", "VB.NET", "Visual Basic .NET", 8));</v>
+        <v>Tags.allTags.push(new Tag("uiux", null, "UI/UX", 7));</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("weblogic", null, "WebLogic", 10));</v>
+        <v>Tags.allTags.push(new Tag("testing", null, "Unit Testing", 7));</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" t="str">
         <f>"Tags.allTags.push(new Tag(""" &amp; A46 &amp; """, " &amp; IF(B46 = "", "null", """" &amp; B46 &amp; """") &amp; ", """ &amp; C46 &amp; """" &amp; IF(D46 = "", "",  ", " &amp; D46) &amp; "));"</f>
-        <v>Tags.allTags.push(new Tag("windows", null, "Windows", 10));</v>
+        <v>Tags.allTags.push(new Tag("vb", "VB.NET", "Visual Basic .NET", 8));</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("winserver", null, "Windows Server", 9));</v>
+        <v>Tags.allTags.push(new Tag("weblogic", null, "WebLogic", 10));</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("wcf", "WCF", "Windows Communication Foundation", 7));</v>
+        <v>Tags.allTags.push(new Tag("windows", null, "Windows", 10));</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("winforms", "WinForms", "Windows Forms", 10));</v>
+        <v>Tags.allTags.push(new Tag("wcf", "WCF", "Windows Communication Foundation", 7));</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("wp", null, "Windows Phone", 4));</v>
+        <v>Tags.allTags.push(new Tag("winforms", "WinForms", "Windows Forms", 10));</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("xml", null, "XML", 10));</v>
+        <v>Tags.allTags.push(new Tag("wp", null, "Windows Phone", 4));</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>Tags.allTags.push(new Tag("xsd", null, "XSD", 8));</v>
+        <v>Tags.allTags.push(new Tag("winserver", null, "Windows Server", 9));</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("xml", null, "XML", 10));</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>Tags.allTags.push(new Tag("xsd", null, "XSD", 8));</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>91</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>92</v>
       </c>
-      <c r="D53">
+      <c r="D55">
         <v>9</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="0"/>
         <v>Tags.allTags.push(new Tag("xslt", null, "XSLT", 9));</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D52">
+  <sortState ref="A2:D55">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
